--- a/datasheets/Bryant_et_al_1994.xlsx
+++ b/datasheets/Bryant_et_al_1994.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="149">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMNH-M 80594</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/0031-0182(94)90102-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryant et al. (1994)</t>
   </si>
   <si>
     <t xml:space="preserve">AMNH-M 83453</t>
@@ -578,31 +584,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -623,10 +629,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP115"/>
+  <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP2" activeCellId="0" sqref="AP2:AP39"/>
+      <selection pane="topLeft" activeCell="AQ44" activeCellId="0" sqref="AQ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,10 +664,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="43" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="44" style="1" width="11.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,43 +795,46 @@
       <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>22.8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="1" t="n">
@@ -885,48 +895,51 @@
         <v>-5.6</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="1" t="n">
@@ -987,48 +1000,51 @@
         <v>-2.9</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>20.8</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="1" t="n">
@@ -1089,48 +1105,51 @@
         <v>-3.4</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>21.6</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="1" t="n">
@@ -1191,48 +1210,51 @@
         <v>-3.2</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>21.1</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="1" t="n">
@@ -1293,48 +1315,51 @@
         <v>-3.8</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>18.9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="1" t="n">
@@ -1395,48 +1420,51 @@
         <v>0.8</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>13.4</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="1" t="n">
@@ -1497,48 +1525,51 @@
         <v>0.3</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>22.1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="1" t="n">
@@ -1599,48 +1630,51 @@
         <v>-3</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>15.6</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="1" t="n">
@@ -1701,48 +1735,51 @@
         <v>-3.2</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>26.7</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="1" t="n">
@@ -1803,48 +1840,51 @@
         <v>-14</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>14.4</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="1" t="n">
@@ -1905,48 +1945,51 @@
         <v>-19.3</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>11.8</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>-15.2</v>
@@ -2006,48 +2049,51 @@
         <v>-24.6</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>13.7</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" s="6" t="n">
         <v>42.42</v>
@@ -2104,48 +2150,51 @@
         <v>-21.2</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>14.7</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" s="6" t="n">
         <v>42.8</v>
@@ -2202,94 +2251,100 @@
         <v>-19.7</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>17.7</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="AO16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>19.1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T17" s="6" t="n">
         <v>42.7</v>
@@ -2346,48 +2401,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>20.6</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T18" s="6" t="n">
         <v>42.7</v>
@@ -2444,48 +2502,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>22.2</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19" s="5"/>
       <c r="T19" s="6" t="n">
@@ -2543,48 +2604,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>16.1</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M20" s="5"/>
       <c r="T20" s="6" t="n">
@@ -2642,48 +2706,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>15.1</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="5"/>
       <c r="T21" s="6" t="n">
@@ -2741,48 +2808,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>14.3</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M22" s="5"/>
       <c r="T22" s="6" t="n">
@@ -2840,48 +2910,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>17.5</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M23" s="5"/>
       <c r="T23" s="6" t="n">
@@ -2939,48 +3012,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>17.2</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="5"/>
       <c r="T24" s="6" t="n">
@@ -3038,48 +3114,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>16.7</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M25" s="5"/>
       <c r="T25" s="6" t="n">
@@ -3137,48 +3216,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>18.6</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M26" s="5"/>
       <c r="T26" s="6" t="n">
@@ -3236,48 +3318,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>20</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="5"/>
       <c r="T27" s="6" t="n">
@@ -3335,48 +3420,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>16.5</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M28" s="5"/>
       <c r="T28" s="6" t="n">
@@ -3434,48 +3522,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>18.4</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M29" s="5"/>
       <c r="T29" s="6" t="n">
@@ -3533,48 +3624,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>17.8</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M30" s="5"/>
       <c r="T30" s="6" t="n">
@@ -3632,48 +3726,51 @@
         <v>-19.3</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>20.4</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M31" s="5"/>
       <c r="T31" s="6" t="n">
@@ -3731,48 +3828,51 @@
         <v>-19.3</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>19.2</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M32" s="5"/>
       <c r="T32" s="6" t="n">
@@ -3830,48 +3930,51 @@
         <v>-19.3</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>14.4</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M33" s="5"/>
       <c r="T33" s="6" t="n">
@@ -3929,48 +4032,51 @@
         <v>-19.7</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>17.9</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M34" s="5"/>
       <c r="T34" s="6" t="n">
@@ -4028,48 +4134,51 @@
         <v>-19.3</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>17.8</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M35" s="5"/>
       <c r="T35" s="6" t="n">
@@ -4127,48 +4236,51 @@
         <v>-21.2</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>16.5</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M36" s="5"/>
       <c r="T36" s="6" t="n">
@@ -4226,48 +4338,51 @@
         <v>-21.2</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>18.3</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M37" s="5"/>
       <c r="T37" s="6" t="n">
@@ -4325,48 +4440,51 @@
         <v>-21.2</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>19.1</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M38" s="5"/>
       <c r="T38" s="6" t="n">
@@ -4424,48 +4542,51 @@
         <v>-21.2</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>16.1</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M39" s="5"/>
       <c r="T39" s="6" t="n">
@@ -4523,10 +4644,13 @@
         <v>-20.2</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AP39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
